--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318894.2909555872</v>
+        <v>317006.7094391853</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>76.80145542575501</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>209.4358303503865</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.03418953492981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63421788630139</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>100.9257847174762</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>136.7169362854112</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="E7" t="n">
-        <v>7.66511249829282</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>333.3587721200973</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.3243799685269</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.86965341517862</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22.11041309544132</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.31094730381735</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>140.661071641023</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>49.21182350370167</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847134</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>161.015633493775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941285</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>67.0899189488669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.459896748108654</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417129</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,10 +2767,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151927</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664962</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801234</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437442</v>
+        <v>42.20569823125152</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523588</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.2523038904854</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
         <v>42.2873553346313</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789599</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3490,7 +3490,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224546</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.892857925727</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.930340985316</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.664642378565</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>1287.664642378565</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>876.6787375889576</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7149294871444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>131.5202095231473</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.892857925727</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.78562614996181</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="C4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>256.4340909802015</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y4" t="n">
-        <v>256.4340909802015</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1851.286880367297</v>
+        <v>898.3702206415339</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>898.3702206415339</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>540.1045220347835</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>540.1045220347835</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>533.15902128558</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>519.2356172241709</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.0408972601738</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1851.286880367297</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1851.286880367297</v>
+        <v>1284.970060705656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>344.90437809669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>962.0987983716307</v>
+        <v>1469.698544874888</v>
       </c>
       <c r="D8" t="n">
-        <v>962.0987983716307</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>962.0987983716307</v>
+        <v>725.6445936698931</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>718.6990929206896</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>300.7352848188765</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.96283375488832</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>68.96283375488832</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W10" t="n">
-        <v>76.27673242182033</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>250.611298585128</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>410.9989309912207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150552</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698951</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>1661.954360834046</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>534.1020230870772</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>534.1020230870772</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8946022306073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>754.8946022306073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>534.1020230870772</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,19 +5528,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0375086983738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>315.1013257704669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>315.1013257704669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655741</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286135</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286135</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286135</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>180.0505168052655</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>329.1202010073254</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.274216523787</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V22" t="n">
-        <v>1081.5897283179</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W22" t="n">
-        <v>792.172558280939</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.0375086983739</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>315.101325770467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>164.9846863581313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>164.9846863581313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>164.9846863581313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1493.401223337591</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286137</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286137</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,22 +6400,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262962</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952638</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,31 +6467,31 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0881760231936</v>
+        <v>439.5324299542153</v>
       </c>
       <c r="C31" t="n">
-        <v>392.9128583766571</v>
+        <v>326.3571123076792</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766571</v>
+        <v>232.0013381767142</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756345</v>
+        <v>139.8491098756915</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590947</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933495</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667501</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962045</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818801</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386949</v>
+        <v>902.6804289818906</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220482</v>
+        <v>730.4517433652438</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.9757755720627</v>
+        <v>565.4200295030844</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6707,40 +6707,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7005,37 +7005,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7120,13 +7120,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014291</v>
@@ -7242,7 +7242,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,10 +7573,10 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7585,10 +7585,10 @@
         <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>433.7515527292973</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>15.83804904622804</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>41.75994765618393</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171485</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>9.900512684486067</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504478</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>62.91120742583814</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627448</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>91.23759968302045</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>188.8856946302397</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>115.1826211595602</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>7.954401377189381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2221391428675</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>125.2217189048023</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.40364951451069</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>104.5044556556842</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338457</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312281</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389793</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571513</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523594</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.12909283305259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-5.542233338928781e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-2.862155085169411e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1112677.646763092</v>
+        <v>1112677.646763093</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.2477901671</v>
+      </c>
+      <c r="F2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="F2" t="n">
-        <v>312823.2477901669</v>
       </c>
       <c r="G2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="H2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.2477901672</v>
+        <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
         <v>312823.247790167</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.709876216</v>
+        <v>325457.7098762157</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457136</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284532</v>
+        <v>44162.60530284551</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086706</v>
+        <v>10342.90680086702</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26424,34 +26424,34 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563555</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.45686275963</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-501185.2075834631</v>
       </c>
       <c r="C6" t="n">
-        <v>88782.67163108129</v>
+        <v>88782.67163108125</v>
       </c>
       <c r="D6" t="n">
-        <v>88782.67163108112</v>
+        <v>88782.6716310811</v>
       </c>
       <c r="E6" t="n">
-        <v>-319369.7842568851</v>
+        <v>-319467.2433828568</v>
       </c>
       <c r="F6" t="n">
-        <v>205790.2522200113</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="G6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.793094039</v>
       </c>
       <c r="H6" t="n">
-        <v>205790.2522200112</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="I6" t="n">
-        <v>205790.2522200114</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="J6" t="n">
-        <v>29367.03302741832</v>
+        <v>29269.57390144611</v>
       </c>
       <c r="K6" t="n">
-        <v>151456.6039075123</v>
+        <v>151438.1101695774</v>
       </c>
       <c r="L6" t="n">
-        <v>182894.2384620617</v>
+        <v>182894.2384620616</v>
       </c>
       <c r="M6" t="n">
-        <v>58436.13002909142</v>
+        <v>58436.13002909126</v>
       </c>
       <c r="N6" t="n">
         <v>193237.1452629283</v>
       </c>
       <c r="O6" t="n">
-        <v>193237.1452629286</v>
+        <v>193237.1452629285</v>
       </c>
       <c r="P6" t="n">
-        <v>149074.5399600833</v>
+        <v>149074.5399600831</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,40 +26738,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108383</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75.12986081910624</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>176.8021083056671</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.21263156369803</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>24.56574130223561</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>264.3471070535313</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.21437995945001</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642205</v>
       </c>
       <c r="E7" t="n">
-        <v>138.7688501482764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.51727362161415</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>79.59839279583025</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7458196030337</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>203.5992422935958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.631974555493798e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>766.9461261273101</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>326.2624260966944</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>83.67012661109058</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109146</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939272</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109047</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412238</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004316</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>345.2749096669463</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241287</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>471.2493968713479</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
